--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_4.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_4.xlsx
@@ -496,28 +496,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.73414289716429</v>
+        <v>0.684848009126975</v>
       </c>
       <c r="B2" t="n">
-        <v>5.72295817316136</v>
+        <v>2.77963581757806</v>
       </c>
       <c r="C2" t="n">
-        <v>29.6798395180751</v>
+        <v>16.4496621436475</v>
       </c>
       <c r="D2" t="n">
-        <v>45.3463630083906</v>
+        <v>26.6155337094233</v>
       </c>
       <c r="E2" t="n">
-        <v>19.9798812720838</v>
+        <v>12.0300953995958</v>
       </c>
       <c r="F2" t="n">
-        <v>14.9501016954866</v>
+        <v>9.11831247600108</v>
       </c>
       <c r="G2" t="n">
-        <v>12.7896219610843</v>
+        <v>7.85730130712163</v>
       </c>
       <c r="H2" t="n">
-        <v>11.5847400875664</v>
+        <v>7.14873945764473</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.02110675723718</v>
+        <v>1.12651975699981</v>
       </c>
       <c r="B3" t="n">
-        <v>6.59582075743114</v>
+        <v>4.08766862339509</v>
       </c>
       <c r="C3" t="n">
-        <v>34.0333121759383</v>
+        <v>22.7822592088995</v>
       </c>
       <c r="D3" t="n">
-        <v>51.7230420491692</v>
+        <v>35.8377420303073</v>
       </c>
       <c r="E3" t="n">
-        <v>22.6927582053924</v>
+        <v>15.9616744398275</v>
       </c>
       <c r="F3" t="n">
-        <v>16.9299035771227</v>
+        <v>11.996375895625</v>
       </c>
       <c r="G3" t="n">
-        <v>14.4537424195891</v>
+        <v>10.2831156343185</v>
       </c>
       <c r="H3" t="n">
-        <v>13.0729591217753</v>
+        <v>9.32304264597867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.50678616980942</v>
+        <v>1.87104520212163</v>
       </c>
       <c r="B4" t="n">
-        <v>8.00667225370511</v>
+        <v>6.21720583172433</v>
       </c>
       <c r="C4" t="n">
-        <v>41.216672378001</v>
+        <v>33.2449099576374</v>
       </c>
       <c r="D4" t="n">
-        <v>62.4713247447607</v>
+        <v>51.2735520717489</v>
       </c>
       <c r="E4" t="n">
-        <v>27.3345626833822</v>
+        <v>22.6007130936301</v>
       </c>
       <c r="F4" t="n">
-        <v>20.3526314888192</v>
+        <v>16.8864283688547</v>
       </c>
       <c r="G4" t="n">
-        <v>17.3519454311218</v>
+        <v>14.4230487277856</v>
       </c>
       <c r="H4" t="n">
-        <v>15.6790331900402</v>
+        <v>13.0461367437383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.870382304472</v>
+        <v>0.378512245250174</v>
       </c>
       <c r="B5" t="n">
-        <v>5.85130869845864</v>
+        <v>1.53175689571324</v>
       </c>
       <c r="C5" t="n">
-        <v>30.77534724226</v>
+        <v>11.6024774577888</v>
       </c>
       <c r="D5" t="n">
-        <v>47.2557654288603</v>
+        <v>20.3737381911633</v>
       </c>
       <c r="E5" t="n">
-        <v>20.8261298111878</v>
+        <v>9.46762984469277</v>
       </c>
       <c r="F5" t="n">
-        <v>15.5697883819595</v>
+        <v>7.25449094804244</v>
       </c>
       <c r="G5" t="n">
-        <v>13.3070775651032</v>
+        <v>6.28133115137514</v>
       </c>
       <c r="H5" t="n">
-        <v>12.0437644799632</v>
+        <v>5.72830315279507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.14908352075593</v>
+        <v>0.898735562523772</v>
       </c>
       <c r="B6" t="n">
-        <v>6.58341385831781</v>
+        <v>2.98052495596747</v>
       </c>
       <c r="C6" t="n">
-        <v>34.4882447619372</v>
+        <v>18.5139433226715</v>
       </c>
       <c r="D6" t="n">
-        <v>52.7555645338035</v>
+        <v>30.4022697068243</v>
       </c>
       <c r="E6" t="n">
-        <v>23.1827598510811</v>
+        <v>13.746616537352</v>
       </c>
       <c r="F6" t="n">
-        <v>17.3015072405403</v>
+        <v>10.3957755282423</v>
       </c>
       <c r="G6" t="n">
-        <v>14.7720175502636</v>
+        <v>8.93787164545368</v>
       </c>
       <c r="H6" t="n">
-        <v>13.3610796653772</v>
+        <v>8.11694676898934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.48535255324877</v>
+        <v>1.66141025789149</v>
       </c>
       <c r="B7" t="n">
-        <v>7.3406819959865</v>
+        <v>4.97478147752496</v>
       </c>
       <c r="C7" t="n">
-        <v>38.5754653676856</v>
+        <v>28.1350332190216</v>
       </c>
       <c r="D7" t="n">
-        <v>59.1110056594194</v>
+        <v>44.5440206703283</v>
       </c>
       <c r="E7" t="n">
-        <v>25.9815709933488</v>
+        <v>19.8382615971155</v>
       </c>
       <c r="F7" t="n">
-        <v>19.3899053538254</v>
+        <v>14.8952256455242</v>
       </c>
       <c r="G7" t="n">
-        <v>16.5539692528275</v>
+        <v>12.7570385474911</v>
       </c>
       <c r="H7" t="n">
-        <v>14.9714803275218</v>
+        <v>11.5586134137512</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.36804558618315</v>
+        <v>-2.05661613450324</v>
       </c>
       <c r="B8" t="n">
-        <v>5.2568455316869</v>
+        <v>-4.44298570077519</v>
       </c>
       <c r="C8" t="n">
-        <v>26.2880077700836</v>
+        <v>-17.1428762900602</v>
       </c>
       <c r="D8" t="n">
-        <v>39.6298272523206</v>
+        <v>-21.5385149928804</v>
       </c>
       <c r="E8" t="n">
-        <v>17.4510434998682</v>
+        <v>-8.4751936716437</v>
       </c>
       <c r="F8" t="n">
-        <v>13.0894489480393</v>
+        <v>-5.92809123117259</v>
       </c>
       <c r="G8" t="n">
-        <v>11.227236365153</v>
+        <v>-4.85994628976962</v>
       </c>
       <c r="H8" t="n">
-        <v>10.1919335149008</v>
+        <v>-4.27903331318234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.76319887664446</v>
+        <v>-1.49374610070995</v>
       </c>
       <c r="B9" t="n">
-        <v>6.88010597778303</v>
+        <v>-2.20318463946613</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1633163773094</v>
+        <v>-6.72287108659031</v>
       </c>
       <c r="D9" t="n">
-        <v>51.0406259448027</v>
+        <v>-6.65313549429686</v>
       </c>
       <c r="E9" t="n">
-        <v>22.2987131850543</v>
+        <v>-2.15679126597142</v>
       </c>
       <c r="F9" t="n">
-        <v>16.6208715678348</v>
+        <v>-1.31354385606009</v>
       </c>
       <c r="G9" t="n">
-        <v>14.1875721148643</v>
+        <v>-0.980168385259544</v>
       </c>
       <c r="H9" t="n">
-        <v>12.8317383533968</v>
+        <v>-0.810213700704346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.57155886582105</v>
+        <v>-0.198135282290943</v>
       </c>
       <c r="B10" t="n">
-        <v>10.2318224608263</v>
+        <v>2.62503768369955</v>
       </c>
       <c r="C10" t="n">
-        <v>50.0480390988747</v>
+        <v>15.7026911005236</v>
       </c>
       <c r="D10" t="n">
-        <v>73.7092081075711</v>
+        <v>25.2106479588469</v>
       </c>
       <c r="E10" t="n">
-        <v>31.8600259241872</v>
+        <v>11.3111932758409</v>
       </c>
       <c r="F10" t="n">
-        <v>23.572939302957</v>
+        <v>8.50908273816038</v>
       </c>
       <c r="G10" t="n">
-        <v>20.0211564416606</v>
+        <v>7.28338457645959</v>
       </c>
       <c r="H10" t="n">
-        <v>18.0456880070371</v>
+        <v>6.5898611703469</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.98805595985365</v>
+        <v>0.785123399210743</v>
       </c>
       <c r="B2" t="n">
-        <v>6.56091324581814</v>
+        <v>3.18662986908121</v>
       </c>
       <c r="C2" t="n">
-        <v>34.0255592188486</v>
+        <v>18.858220343741</v>
       </c>
       <c r="D2" t="n">
-        <v>51.9859738110022</v>
+        <v>30.5125780016339</v>
       </c>
       <c r="E2" t="n">
-        <v>22.9053338713249</v>
+        <v>13.7915409946224</v>
       </c>
       <c r="F2" t="n">
-        <v>17.1390943760931</v>
+        <v>10.4534150509538</v>
       </c>
       <c r="G2" t="n">
-        <v>14.662277373789</v>
+        <v>9.00776672875834</v>
       </c>
       <c r="H2" t="n">
-        <v>13.2809767938403</v>
+        <v>8.19545731061237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.44733078515468</v>
+        <v>1.36408750874661</v>
       </c>
       <c r="B3" t="n">
-        <v>7.98678997792752</v>
+        <v>4.94970254575806</v>
       </c>
       <c r="C3" t="n">
-        <v>41.2104765424716</v>
+        <v>27.5867289630612</v>
       </c>
       <c r="D3" t="n">
-        <v>62.6307307397356</v>
+        <v>43.3954362020424</v>
       </c>
       <c r="E3" t="n">
-        <v>27.4783534107056</v>
+        <v>19.3277752891221</v>
       </c>
       <c r="F3" t="n">
-        <v>20.5001908313993</v>
+        <v>14.5262490140719</v>
       </c>
       <c r="G3" t="n">
-        <v>17.5018408391801</v>
+        <v>12.4516853793389</v>
       </c>
       <c r="H3" t="n">
-        <v>15.8298690542822</v>
+        <v>11.2891460073111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.26754069017134</v>
+        <v>2.43886630806931</v>
       </c>
       <c r="B4" t="n">
-        <v>10.4365213502978</v>
+        <v>8.10399118959328</v>
       </c>
       <c r="C4" t="n">
-        <v>53.7250267815297</v>
+        <v>43.334009631911</v>
       </c>
       <c r="D4" t="n">
-        <v>81.4299991083533</v>
+        <v>66.833948480255</v>
       </c>
       <c r="E4" t="n">
-        <v>35.6300018293067</v>
+        <v>29.4595329070046</v>
       </c>
       <c r="F4" t="n">
-        <v>26.5292079327353</v>
+        <v>22.0110883295209</v>
       </c>
       <c r="G4" t="n">
-        <v>22.6178795912751</v>
+        <v>18.8001270957812</v>
       </c>
       <c r="H4" t="n">
-        <v>20.4372752443015</v>
+        <v>17.0053525797716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.50548777399739</v>
+        <v>0.304667958079994</v>
       </c>
       <c r="B5" t="n">
-        <v>4.70977173295104</v>
+        <v>1.2329250943611</v>
       </c>
       <c r="C5" t="n">
-        <v>24.7713576539775</v>
+        <v>9.33893991566191</v>
       </c>
       <c r="D5" t="n">
-        <v>38.0365965471005</v>
+        <v>16.3990076702948</v>
       </c>
       <c r="E5" t="n">
-        <v>16.7631418108806</v>
+        <v>7.62058160293674</v>
       </c>
       <c r="F5" t="n">
-        <v>12.5322646587932</v>
+        <v>5.83920592209394</v>
       </c>
       <c r="G5" t="n">
-        <v>10.7109880873008</v>
+        <v>5.05590072693386</v>
       </c>
       <c r="H5" t="n">
-        <v>9.69413586416873</v>
+        <v>4.61076344748576</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.87439257302871</v>
+        <v>0.783861235378508</v>
       </c>
       <c r="B6" t="n">
-        <v>5.7419369335933</v>
+        <v>2.59956106276738</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0800360778128</v>
+        <v>16.1475333677509</v>
       </c>
       <c r="D6" t="n">
-        <v>46.0124687538044</v>
+        <v>26.516321023039</v>
       </c>
       <c r="E6" t="n">
-        <v>20.2195924297488</v>
+        <v>11.9895554049118</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0900680967784</v>
+        <v>9.06701124121827</v>
       </c>
       <c r="G6" t="n">
-        <v>12.8838920020774</v>
+        <v>7.79545330328971</v>
       </c>
       <c r="H6" t="n">
-        <v>11.6532969754562</v>
+        <v>7.07945716977599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.46427961414988</v>
+        <v>1.64732340444406</v>
       </c>
       <c r="B7" t="n">
-        <v>7.27844143198943</v>
+        <v>4.93260103637622</v>
       </c>
       <c r="C7" t="n">
-        <v>38.2483896651491</v>
+        <v>27.8964804065464</v>
       </c>
       <c r="D7" t="n">
-        <v>58.6098121282614</v>
+        <v>44.166338464406</v>
       </c>
       <c r="E7" t="n">
-        <v>25.7612770706533</v>
+        <v>19.6700558920869</v>
       </c>
       <c r="F7" t="n">
-        <v>19.2255011955017</v>
+        <v>14.7689312159946</v>
       </c>
       <c r="G7" t="n">
-        <v>16.413610579989</v>
+        <v>12.6488734921784</v>
       </c>
       <c r="H7" t="n">
-        <v>14.8445393457485</v>
+        <v>11.4606096290498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.750714901540249</v>
+        <v>-1.12856793261346</v>
       </c>
       <c r="B8" t="n">
-        <v>2.88469354792705</v>
+        <v>-2.43808803346092</v>
       </c>
       <c r="C8" t="n">
-        <v>14.425542075588</v>
+        <v>-9.40715193717695</v>
       </c>
       <c r="D8" t="n">
-        <v>21.7468644058765</v>
+        <v>-11.8192583094513</v>
       </c>
       <c r="E8" t="n">
-        <v>9.57625866790686</v>
+        <v>-4.65076182182918</v>
       </c>
       <c r="F8" t="n">
-        <v>7.18283402065512</v>
+        <v>-3.25303956964453</v>
       </c>
       <c r="G8" t="n">
-        <v>6.16094502080908</v>
+        <v>-2.66689512196331</v>
       </c>
       <c r="H8" t="n">
-        <v>5.59282266791305</v>
+        <v>-2.34811917441694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.02257378895401</v>
+        <v>-0.866303642868223</v>
       </c>
       <c r="B9" t="n">
-        <v>3.99014321713716</v>
+        <v>-1.27774517916645</v>
       </c>
       <c r="C9" t="n">
-        <v>19.8131432216335</v>
+        <v>-3.89895425338924</v>
       </c>
       <c r="D9" t="n">
-        <v>29.6012020846392</v>
+        <v>-3.85851083558705</v>
       </c>
       <c r="E9" t="n">
-        <v>12.932222185755</v>
+        <v>-1.25083916853699</v>
       </c>
       <c r="F9" t="n">
-        <v>9.63933668514131</v>
+        <v>-0.761794676505728</v>
       </c>
       <c r="G9" t="n">
-        <v>8.22813555846004</v>
+        <v>-0.568452324241072</v>
       </c>
       <c r="H9" t="n">
-        <v>7.44181469300323</v>
+        <v>-0.469886468716688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.76066001000133</v>
+        <v>-0.135656574981264</v>
       </c>
       <c r="B10" t="n">
-        <v>7.00538528425192</v>
+        <v>1.79727516094043</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2662119042091</v>
+        <v>10.7511053460829</v>
       </c>
       <c r="D10" t="n">
-        <v>50.4662198516039</v>
+        <v>17.260884157591</v>
       </c>
       <c r="E10" t="n">
-        <v>21.8134899837932</v>
+        <v>7.74439423917694</v>
       </c>
       <c r="F10" t="n">
-        <v>16.1396000303705</v>
+        <v>5.82588324070437</v>
       </c>
       <c r="G10" t="n">
-        <v>13.7078135637224</v>
+        <v>4.98668886474763</v>
       </c>
       <c r="H10" t="n">
-        <v>12.3552766569886</v>
+        <v>4.51185667507008</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-93.5429509475113</v>
+        <v>-36.9419981646393</v>
       </c>
       <c r="B2" t="n">
-        <v>-308.707198548688</v>
+        <v>-149.938818398895</v>
       </c>
       <c r="C2" t="n">
-        <v>-1600.98673339391</v>
+        <v>-887.325918482586</v>
       </c>
       <c r="D2" t="n">
-        <v>-2446.06867027987</v>
+        <v>-1435.69227674007</v>
       </c>
       <c r="E2" t="n">
-        <v>-1077.7526216714</v>
+        <v>-648.926121197071</v>
       </c>
       <c r="F2" t="n">
-        <v>-806.436788945151</v>
+        <v>-491.859037719106</v>
       </c>
       <c r="G2" t="n">
-        <v>-689.896421857319</v>
+        <v>-423.837707926941</v>
       </c>
       <c r="H2" t="n">
-        <v>-624.902812520777</v>
+        <v>-385.61654031885</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-47.4779347860594</v>
+        <v>-26.4631402406261</v>
       </c>
       <c r="B3" t="n">
-        <v>-154.942803818009</v>
+        <v>-96.0236581435558</v>
       </c>
       <c r="C3" t="n">
-        <v>-799.478488831345</v>
+        <v>-535.179358104684</v>
       </c>
       <c r="D3" t="n">
-        <v>-1215.02894815115</v>
+        <v>-841.866454061277</v>
       </c>
       <c r="E3" t="n">
-        <v>-533.076884896585</v>
+        <v>-374.956609994407</v>
       </c>
       <c r="F3" t="n">
-        <v>-397.701336206348</v>
+        <v>-281.807554401591</v>
       </c>
       <c r="G3" t="n">
-        <v>-339.533692396251</v>
+        <v>-241.561259312731</v>
       </c>
       <c r="H3" t="n">
-        <v>-307.09763273115</v>
+        <v>-219.008129663822</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-40.0481376282542</v>
+        <v>-29.8916104874429</v>
       </c>
       <c r="B4" t="n">
-        <v>-127.913707288837</v>
+        <v>-99.3253903387422</v>
       </c>
       <c r="C4" t="n">
-        <v>-658.47298339704</v>
+        <v>-531.116991731131</v>
       </c>
       <c r="D4" t="n">
-        <v>-998.034950618763</v>
+        <v>-819.140577201673</v>
       </c>
       <c r="E4" t="n">
-        <v>-436.693939649212</v>
+        <v>-361.066483998991</v>
       </c>
       <c r="F4" t="n">
-        <v>-325.151381788316</v>
+        <v>-269.775705447172</v>
       </c>
       <c r="G4" t="n">
-        <v>-277.212754367618</v>
+        <v>-230.421025704514</v>
       </c>
       <c r="H4" t="n">
-        <v>-250.486494075573</v>
+        <v>-208.423632666674</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-113.632359240147</v>
+        <v>-22.9959614813637</v>
       </c>
       <c r="B5" t="n">
-        <v>-355.487758015304</v>
+        <v>-93.0596645541911</v>
       </c>
       <c r="C5" t="n">
-        <v>-1869.71150508182</v>
+        <v>-704.891659532323</v>
       </c>
       <c r="D5" t="n">
-        <v>-2870.95536593853</v>
+        <v>-1237.77686073464</v>
       </c>
       <c r="E5" t="n">
-        <v>-1265.26125628358</v>
+        <v>-575.192094735181</v>
       </c>
       <c r="F5" t="n">
-        <v>-945.919870222112</v>
+        <v>-440.736056763038</v>
       </c>
       <c r="G5" t="n">
-        <v>-808.45216226592</v>
+        <v>-381.613147319033</v>
       </c>
       <c r="H5" t="n">
-        <v>-731.701411373882</v>
+        <v>-348.01473481574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-89.2970864132619</v>
+        <v>-37.3435775828422</v>
       </c>
       <c r="B6" t="n">
-        <v>-273.549013113128</v>
+        <v>-123.844509522037</v>
       </c>
       <c r="C6" t="n">
-        <v>-1433.02935553904</v>
+        <v>-769.277313221083</v>
       </c>
       <c r="D6" t="n">
-        <v>-2192.0591542661</v>
+        <v>-1263.25202299008</v>
       </c>
       <c r="E6" t="n">
-        <v>-963.272432051275</v>
+        <v>-571.188971005703</v>
       </c>
       <c r="F6" t="n">
-        <v>-718.899089875654</v>
+        <v>-431.957370066192</v>
       </c>
       <c r="G6" t="n">
-        <v>-613.795655191715</v>
+        <v>-371.379655079196</v>
       </c>
       <c r="H6" t="n">
-        <v>-555.169435682981</v>
+        <v>-337.269208033076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-74.3120140883147</v>
+        <v>-49.6761484923001</v>
       </c>
       <c r="B7" t="n">
-        <v>-219.48631118371</v>
+        <v>-148.745911625649</v>
       </c>
       <c r="C7" t="n">
-        <v>-1153.40599148382</v>
+        <v>-841.237184726225</v>
       </c>
       <c r="D7" t="n">
-        <v>-1767.41842101849</v>
+        <v>-1331.86572958299</v>
       </c>
       <c r="E7" t="n">
-        <v>-776.848687792997</v>
+        <v>-593.163804211787</v>
       </c>
       <c r="F7" t="n">
-        <v>-579.757957453988</v>
+        <v>-445.36708346344</v>
       </c>
       <c r="G7" t="n">
-        <v>-494.963499132395</v>
+        <v>-381.435312679134</v>
       </c>
       <c r="H7" t="n">
-        <v>-447.647097618977</v>
+        <v>-345.602414321976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-61.5838547369641</v>
+        <v>92.5805035710175</v>
       </c>
       <c r="B8" t="n">
-        <v>-236.641830409533</v>
+        <v>200.005167048809</v>
       </c>
       <c r="C8" t="n">
-        <v>-1183.37931731777</v>
+        <v>771.702649300076</v>
       </c>
       <c r="D8" t="n">
-        <v>-1783.97383055564</v>
+        <v>969.576446843556</v>
       </c>
       <c r="E8" t="n">
-        <v>-785.575085186119</v>
+        <v>381.518789442055</v>
       </c>
       <c r="F8" t="n">
-        <v>-589.233817019193</v>
+        <v>266.858584929587</v>
       </c>
       <c r="G8" t="n">
-        <v>-505.404571596328</v>
+        <v>218.775038903236</v>
       </c>
       <c r="H8" t="n">
-        <v>-458.799443095764</v>
+        <v>192.624696600111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44.4435043416108</v>
+        <v>-37.6516297687917</v>
       </c>
       <c r="B9" t="n">
-        <v>173.421174403346</v>
+        <v>-55.5338636988184</v>
       </c>
       <c r="C9" t="n">
-        <v>861.126626071993</v>
+        <v>-169.457883783132</v>
       </c>
       <c r="D9" t="n">
-        <v>1286.53909143443</v>
+        <v>-167.700116046371</v>
       </c>
       <c r="E9" t="n">
-        <v>562.065328749713</v>
+        <v>-54.3644640788174</v>
       </c>
       <c r="F9" t="n">
-        <v>418.948643554163</v>
+        <v>-33.109419954261</v>
       </c>
       <c r="G9" t="n">
-        <v>357.61446495694</v>
+        <v>-24.7062985706383</v>
       </c>
       <c r="H9" t="n">
-        <v>323.439078128791</v>
+        <v>-20.4223905776382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>41.3602209620942</v>
+        <v>-3.18675149336852</v>
       </c>
       <c r="B10" t="n">
-        <v>164.565720602153</v>
+        <v>42.2203590494017</v>
       </c>
       <c r="C10" t="n">
-        <v>804.958417775933</v>
+        <v>252.5576148574</v>
       </c>
       <c r="D10" t="n">
-        <v>1185.51792641805</v>
+        <v>405.480887112633</v>
       </c>
       <c r="E10" t="n">
-        <v>512.427589971463</v>
+        <v>181.926013614454</v>
       </c>
       <c r="F10" t="n">
-        <v>379.140447164153</v>
+        <v>136.8576651745</v>
       </c>
       <c r="G10" t="n">
-        <v>322.014582419192</v>
+        <v>117.143884761159</v>
       </c>
       <c r="H10" t="n">
-        <v>290.241710312069</v>
+        <v>105.989451665945</v>
       </c>
     </row>
     <row r="11">
@@ -2881,184 +2881,184 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-24.0011781783366</v>
+        <v>-9.47854938541345</v>
       </c>
       <c r="B2" t="n">
-        <v>-79.2078548116332</v>
+        <v>-38.4711863351462</v>
       </c>
       <c r="C2" t="n">
-        <v>-410.77994076648</v>
+        <v>-227.669399522224</v>
       </c>
       <c r="D2" t="n">
-        <v>-627.610412085209</v>
+        <v>-368.368816615967</v>
       </c>
       <c r="E2" t="n">
-        <v>-276.528936097165</v>
+        <v>-166.500963478982</v>
       </c>
       <c r="F2" t="n">
-        <v>-206.914929077862</v>
+        <v>-126.200812389868</v>
       </c>
       <c r="G2" t="n">
-        <v>-177.013091610565</v>
+        <v>-108.747952075623</v>
       </c>
       <c r="H2" t="n">
-        <v>-160.337081474699</v>
+        <v>-98.941194381389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-18.0364791435137</v>
+        <v>-10.0531305578624</v>
       </c>
       <c r="B3" t="n">
-        <v>-58.8615040248469</v>
+        <v>-36.4786024327804</v>
       </c>
       <c r="C3" t="n">
-        <v>-303.715339651387</v>
+        <v>-203.310261366475</v>
       </c>
       <c r="D3" t="n">
-        <v>-461.579560712659</v>
+        <v>-319.818180987066</v>
       </c>
       <c r="E3" t="n">
-        <v>-202.511548989061</v>
+        <v>-142.442949685176</v>
       </c>
       <c r="F3" t="n">
-        <v>-151.083485163291</v>
+        <v>-107.056385252488</v>
       </c>
       <c r="G3" t="n">
-        <v>-128.986072983598</v>
+        <v>-91.7671468885009</v>
       </c>
       <c r="H3" t="n">
-        <v>-116.663879183814</v>
+        <v>-83.1993973777755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-16.127046775274</v>
+        <v>-12.0370990779647</v>
       </c>
       <c r="B4" t="n">
-        <v>-51.5097695626778</v>
+        <v>-39.9974957845517</v>
       </c>
       <c r="C4" t="n">
-        <v>-265.161508933848</v>
+        <v>-213.876326742042</v>
       </c>
       <c r="D4" t="n">
-        <v>-401.900245184727</v>
+        <v>-329.860991956249</v>
       </c>
       <c r="E4" t="n">
-        <v>-175.852961168235</v>
+        <v>-145.398423529371</v>
       </c>
       <c r="F4" t="n">
-        <v>-130.93571520903</v>
+        <v>-108.636398050871</v>
       </c>
       <c r="G4" t="n">
-        <v>-111.631234837624</v>
+        <v>-92.7886009091629</v>
       </c>
       <c r="H4" t="n">
-        <v>-100.868795548715</v>
+        <v>-83.9304365233849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-24.0392746097547</v>
+        <v>-4.86486628159818</v>
       </c>
       <c r="B5" t="n">
-        <v>-75.2045270597239</v>
+        <v>-19.6870578615908</v>
       </c>
       <c r="C5" t="n">
-        <v>-395.543211566091</v>
+        <v>-149.121995591168</v>
       </c>
       <c r="D5" t="n">
-        <v>-607.359425568992</v>
+        <v>-261.855496618847</v>
       </c>
       <c r="E5" t="n">
-        <v>-267.669904913301</v>
+        <v>-121.683654296723</v>
       </c>
       <c r="F5" t="n">
-        <v>-200.112253861037</v>
+        <v>-93.2390664929872</v>
       </c>
       <c r="G5" t="n">
-        <v>-171.030538022078</v>
+        <v>-80.7314334089252</v>
       </c>
       <c r="H5" t="n">
-        <v>-154.793680937211</v>
+        <v>-73.6235860490763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.0833394517576</v>
+        <v>-9.23513782172488</v>
       </c>
       <c r="B6" t="n">
-        <v>-67.6491916579861</v>
+        <v>-30.6269829494168</v>
       </c>
       <c r="C6" t="n">
-        <v>-354.390887472472</v>
+        <v>-190.243743919894</v>
       </c>
       <c r="D6" t="n">
-        <v>-542.100401551307</v>
+        <v>-312.404629952926</v>
       </c>
       <c r="E6" t="n">
-        <v>-238.219106086637</v>
+        <v>-141.256119818325</v>
       </c>
       <c r="F6" t="n">
-        <v>-177.785113388939</v>
+        <v>-106.823879871219</v>
       </c>
       <c r="G6" t="n">
-        <v>-151.792833921618</v>
+        <v>-91.8428956420298</v>
       </c>
       <c r="H6" t="n">
-        <v>-137.294458238978</v>
+        <v>-83.4073171564726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.8378683934271</v>
+        <v>-13.2612324961537</v>
       </c>
       <c r="B7" t="n">
-        <v>-58.5926866448086</v>
+        <v>-39.708274026635</v>
       </c>
       <c r="C7" t="n">
-        <v>-307.906016866314</v>
+        <v>-224.571393508768</v>
       </c>
       <c r="D7" t="n">
-        <v>-471.818917337042</v>
+        <v>-355.546507322264</v>
       </c>
       <c r="E7" t="n">
-        <v>-207.38264490758</v>
+        <v>-158.347282442293</v>
       </c>
       <c r="F7" t="n">
-        <v>-154.768541818097</v>
+        <v>-118.892398448685</v>
       </c>
       <c r="G7" t="n">
-        <v>-132.132345971264</v>
+        <v>-101.825574590694</v>
       </c>
       <c r="H7" t="n">
-        <v>-119.501056702772</v>
+        <v>-92.2598491762334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.8006052419753</v>
+        <v>34.2767032697458</v>
       </c>
       <c r="B8" t="n">
-        <v>-87.6134984071998</v>
+        <v>74.049259821634</v>
       </c>
       <c r="C8" t="n">
-        <v>-438.130493469834</v>
+        <v>285.712668458806</v>
       </c>
       <c r="D8" t="n">
-        <v>-660.492644480389</v>
+        <v>358.972816995943</v>
       </c>
       <c r="E8" t="n">
-        <v>-290.84875381321</v>
+        <v>141.252270544268</v>
       </c>
       <c r="F8" t="n">
-        <v>-218.156003947135</v>
+        <v>98.8008509113275</v>
       </c>
       <c r="G8" t="n">
-        <v>-187.11933791213</v>
+        <v>80.9985558737106</v>
       </c>
       <c r="H8" t="n">
-        <v>-169.864407350677</v>
+        <v>71.3167385476803</v>
       </c>
     </row>
     <row r="9">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.19694661486671</v>
+        <v>2.84221938632872</v>
       </c>
       <c r="B2" t="n">
-        <v>23.7511133129275</v>
+        <v>11.5358951217879</v>
       </c>
       <c r="C2" t="n">
-        <v>123.175674218479</v>
+        <v>68.2685034053508</v>
       </c>
       <c r="D2" t="n">
-        <v>188.19403769056</v>
+        <v>110.458357005142</v>
       </c>
       <c r="E2" t="n">
-        <v>82.9194290284257</v>
+        <v>49.926655124109</v>
       </c>
       <c r="F2" t="n">
-        <v>62.0451082579108</v>
+        <v>37.8423301878771</v>
       </c>
       <c r="G2" t="n">
-        <v>53.078801423324</v>
+        <v>32.6089494336057</v>
       </c>
       <c r="H2" t="n">
-        <v>48.0783654528459</v>
+        <v>29.6683141420417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.41652597854735</v>
+        <v>4.13380590274059</v>
       </c>
       <c r="B3" t="n">
-        <v>24.2036081578393</v>
+        <v>14.9998511600369</v>
       </c>
       <c r="C3" t="n">
-        <v>124.886497452464</v>
+        <v>83.6003425686309</v>
       </c>
       <c r="D3" t="n">
-        <v>189.799615321431</v>
+        <v>131.507919524046</v>
       </c>
       <c r="E3" t="n">
-        <v>83.2719153268536</v>
+        <v>58.5719545591543</v>
       </c>
       <c r="F3" t="n">
-        <v>62.1249071799018</v>
+        <v>44.0211449294963</v>
       </c>
       <c r="G3" t="n">
-        <v>53.0385422532804</v>
+        <v>37.734273050763</v>
       </c>
       <c r="H3" t="n">
-        <v>47.971706885821</v>
+        <v>34.2112497201905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.39476518718202</v>
+        <v>5.51939375241762</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6188718287751</v>
+        <v>18.340127211359</v>
       </c>
       <c r="C4" t="n">
-        <v>121.585007011388</v>
+        <v>98.0691156535414</v>
       </c>
       <c r="D4" t="n">
-        <v>184.284077749966</v>
+        <v>151.251783039859</v>
       </c>
       <c r="E4" t="n">
-        <v>80.6341900926024</v>
+        <v>66.6698134859148</v>
       </c>
       <c r="F4" t="n">
-        <v>60.0382005508299</v>
+        <v>49.8132525788361</v>
       </c>
       <c r="G4" t="n">
-        <v>51.1864807414732</v>
+        <v>42.5465322530353</v>
       </c>
       <c r="H4" t="n">
-        <v>46.2515591472229</v>
+        <v>38.4847814231984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.01947793532321</v>
+        <v>1.42054292720294</v>
       </c>
       <c r="B5" t="n">
-        <v>21.9597524010953</v>
+        <v>5.74862887979124</v>
       </c>
       <c r="C5" t="n">
-        <v>115.498778192267</v>
+        <v>43.5436831899583</v>
       </c>
       <c r="D5" t="n">
-        <v>177.349198584475</v>
+        <v>76.4619112098015</v>
       </c>
       <c r="E5" t="n">
-        <v>78.1597207898509</v>
+        <v>35.5316764041931</v>
       </c>
       <c r="F5" t="n">
-        <v>58.4328592841711</v>
+        <v>27.2258452296259</v>
       </c>
       <c r="G5" t="n">
-        <v>49.9409864649274</v>
+        <v>23.5736112965327</v>
       </c>
       <c r="H5" t="n">
-        <v>45.1998176111895</v>
+        <v>21.4981169848259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.02768170632521</v>
+        <v>3.7753295850344</v>
       </c>
       <c r="B6" t="n">
-        <v>27.6550279595454</v>
+        <v>12.5203280190659</v>
       </c>
       <c r="C6" t="n">
-        <v>144.875196014295</v>
+        <v>77.7717505307718</v>
       </c>
       <c r="D6" t="n">
-        <v>221.61095194716</v>
+        <v>127.711190101407</v>
       </c>
       <c r="E6" t="n">
-        <v>97.3841058239185</v>
+        <v>57.7455819839278</v>
       </c>
       <c r="F6" t="n">
-        <v>72.6786552959742</v>
+        <v>43.6696627436633</v>
       </c>
       <c r="G6" t="n">
-        <v>62.0529966918742</v>
+        <v>37.5454278848889</v>
       </c>
       <c r="H6" t="n">
-        <v>56.1260524809441</v>
+        <v>34.0969586104525</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.91966002221624</v>
+        <v>5.29414001354608</v>
       </c>
       <c r="B7" t="n">
-        <v>23.3913316094426</v>
+        <v>15.8523095386672</v>
       </c>
       <c r="C7" t="n">
-        <v>122.922025895884</v>
+        <v>89.6532355207105</v>
       </c>
       <c r="D7" t="n">
-        <v>188.359220015674</v>
+        <v>141.941029360378</v>
       </c>
       <c r="E7" t="n">
-        <v>82.791155259413</v>
+        <v>63.2152919615253</v>
       </c>
       <c r="F7" t="n">
-        <v>61.7865896186508</v>
+        <v>47.4641406156032</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7497832568031</v>
+        <v>40.6507350654826</v>
       </c>
       <c r="H7" t="n">
-        <v>47.7071287404606</v>
+        <v>36.8319128187586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.91404995947676</v>
+        <v>-5.88408630473368</v>
       </c>
       <c r="B8" t="n">
-        <v>15.0401099554588</v>
+        <v>-12.7116144211197</v>
       </c>
       <c r="C8" t="n">
-        <v>75.2113648743902</v>
+        <v>-49.0466654957229</v>
       </c>
       <c r="D8" t="n">
-        <v>113.383008079272</v>
+        <v>-61.6228176798392</v>
       </c>
       <c r="E8" t="n">
-        <v>49.9283479975657</v>
+        <v>-24.2479722767174</v>
       </c>
       <c r="F8" t="n">
-        <v>37.4495979096615</v>
+        <v>-16.960579002255</v>
       </c>
       <c r="G8" t="n">
-        <v>32.1217103317929</v>
+        <v>-13.9045604698039</v>
       </c>
       <c r="H8" t="n">
-        <v>29.1596547394925</v>
+        <v>-12.2425380668702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.84344421671001</v>
+        <v>-2.4089079045808</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0952869877673</v>
+        <v>-3.55299263424924</v>
       </c>
       <c r="C9" t="n">
-        <v>55.0938896703273</v>
+        <v>-10.8417202188967</v>
       </c>
       <c r="D9" t="n">
-        <v>82.3112892042031</v>
+        <v>-10.7292602637366</v>
       </c>
       <c r="E9" t="n">
-        <v>35.9602923334344</v>
+        <v>-3.47817579350337</v>
       </c>
       <c r="F9" t="n">
-        <v>26.8038516597635</v>
+        <v>-2.11830255247047</v>
       </c>
       <c r="G9" t="n">
-        <v>22.8797615592525</v>
+        <v>-1.58068052525775</v>
       </c>
       <c r="H9" t="n">
-        <v>20.6932596739962</v>
+        <v>-1.30660102617088</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.43769849471961</v>
+        <v>-0.187821513950553</v>
       </c>
       <c r="B10" t="n">
-        <v>9.69921340028555</v>
+        <v>2.4883935169392</v>
       </c>
       <c r="C10" t="n">
-        <v>47.4428297934537</v>
+        <v>14.885300495181</v>
       </c>
       <c r="D10" t="n">
-        <v>69.8723362078012</v>
+        <v>23.8983285185522</v>
       </c>
       <c r="E10" t="n">
-        <v>30.201578610304</v>
+        <v>10.7223984597359</v>
       </c>
       <c r="F10" t="n">
-        <v>22.3458694330094</v>
+        <v>8.06614946986073</v>
       </c>
       <c r="G10" t="n">
-        <v>18.9789716926426</v>
+        <v>6.90425401280122</v>
       </c>
       <c r="H10" t="n">
-        <v>17.1063346344548</v>
+        <v>6.24683139432504</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_4.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_4.xlsx
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.378512245250174</v>
+        <v>0.799052783609118</v>
       </c>
       <c r="B5" t="n">
-        <v>1.53175689571324</v>
+        <v>2.66692993162863</v>
       </c>
       <c r="C5" t="n">
-        <v>11.6024774577888</v>
+        <v>16.4864956225731</v>
       </c>
       <c r="D5" t="n">
-        <v>20.3737381911633</v>
+        <v>27.1265852087475</v>
       </c>
       <c r="E5" t="n">
-        <v>9.46762984469277</v>
+        <v>12.3101863096779</v>
       </c>
       <c r="F5" t="n">
-        <v>7.25449094804244</v>
+        <v>9.33356184081619</v>
       </c>
       <c r="G5" t="n">
-        <v>6.28133115137514</v>
+        <v>8.03762259701103</v>
       </c>
       <c r="H5" t="n">
-        <v>5.72830315279507</v>
+        <v>7.30699630217668</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.898735562523772</v>
+        <v>1.24950767221497</v>
       </c>
       <c r="B6" t="n">
-        <v>2.98052495596747</v>
+        <v>3.91521625341754</v>
       </c>
       <c r="C6" t="n">
-        <v>18.5139433226715</v>
+        <v>22.5618371338362</v>
       </c>
       <c r="D6" t="n">
-        <v>30.4022697068243</v>
+        <v>36.0074140675428</v>
       </c>
       <c r="E6" t="n">
-        <v>13.746616537352</v>
+        <v>16.1066831948684</v>
       </c>
       <c r="F6" t="n">
-        <v>10.3957755282423</v>
+        <v>12.1220554959632</v>
       </c>
       <c r="G6" t="n">
-        <v>8.93787164545368</v>
+        <v>10.3961737218756</v>
       </c>
       <c r="H6" t="n">
-        <v>8.11694676898934</v>
+        <v>9.42779474847192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.66141025789149</v>
+        <v>1.89241057125311</v>
       </c>
       <c r="B7" t="n">
-        <v>4.97478147752496</v>
+        <v>5.5783046995031</v>
       </c>
       <c r="C7" t="n">
-        <v>28.1350332190216</v>
+        <v>30.7633369196359</v>
       </c>
       <c r="D7" t="n">
-        <v>44.5440206703283</v>
+        <v>48.189827205823</v>
       </c>
       <c r="E7" t="n">
-        <v>19.8382615971155</v>
+        <v>21.37390207544</v>
       </c>
       <c r="F7" t="n">
-        <v>14.8952256455242</v>
+        <v>16.0185854263084</v>
       </c>
       <c r="G7" t="n">
-        <v>12.7570385474911</v>
+        <v>13.7060512775452</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5586134137512</v>
+        <v>12.4116846696568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.05661613450324</v>
+        <v>0.402673920727285</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.44298570077519</v>
+        <v>2.96070424008747</v>
       </c>
       <c r="C8" t="n">
-        <v>-17.1428762900602</v>
+        <v>15.9088144594812</v>
       </c>
       <c r="D8" t="n">
-        <v>-21.5385149928804</v>
+        <v>24.7039822942054</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.4751936716437</v>
+        <v>11.0532413023414</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.92809123117259</v>
+        <v>8.37105850993123</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.85994628976962</v>
+        <v>7.22519821285677</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.27903331318234</v>
+        <v>6.58693306319866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.49374610070995</v>
+        <v>0.849496852073605</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.20318463946613</v>
+        <v>4.69908150477524</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.72287108659031</v>
+        <v>24.2678675442159</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.65313549429686</v>
+        <v>36.8324805959285</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.15679126597142</v>
+        <v>16.2243892975962</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.31354385606009</v>
+        <v>12.1505302842891</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.980168385259544</v>
+        <v>10.4014491495534</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.810213700704346</v>
+        <v>9.42448980189987</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.198135282290943</v>
+        <v>1.79504791385895</v>
       </c>
       <c r="B10" t="n">
-        <v>2.62503768369955</v>
+        <v>8.3601893244421</v>
       </c>
       <c r="C10" t="n">
-        <v>15.7026911005236</v>
+        <v>41.5785475371408</v>
       </c>
       <c r="D10" t="n">
-        <v>25.2106479588469</v>
+        <v>61.6358919008981</v>
       </c>
       <c r="E10" t="n">
-        <v>11.3111932758409</v>
+        <v>26.7248362688434</v>
       </c>
       <c r="F10" t="n">
-        <v>8.50908273816038</v>
+        <v>19.8044270705268</v>
       </c>
       <c r="G10" t="n">
-        <v>7.28338457645959</v>
+        <v>16.8340670353531</v>
       </c>
       <c r="H10" t="n">
-        <v>6.5898611703469</v>
+        <v>15.1796341270983</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.304667958079994</v>
+        <v>0.643164872564221</v>
       </c>
       <c r="B5" t="n">
-        <v>1.2329250943611</v>
+        <v>2.14663622328699</v>
       </c>
       <c r="C5" t="n">
-        <v>9.33893991566191</v>
+        <v>13.2701306767613</v>
       </c>
       <c r="D5" t="n">
-        <v>16.3990076702948</v>
+        <v>21.8344358179738</v>
       </c>
       <c r="E5" t="n">
-        <v>7.62058160293674</v>
+        <v>9.90858122456511</v>
       </c>
       <c r="F5" t="n">
-        <v>5.83920592209394</v>
+        <v>7.51266904397067</v>
       </c>
       <c r="G5" t="n">
-        <v>5.05590072693386</v>
+        <v>6.46955572819171</v>
       </c>
       <c r="H5" t="n">
-        <v>4.61076344748576</v>
+        <v>5.88146796046412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.783861235378508</v>
+        <v>1.08979845507276</v>
       </c>
       <c r="B6" t="n">
-        <v>2.59956106276738</v>
+        <v>3.41478225314658</v>
       </c>
       <c r="C6" t="n">
-        <v>16.1475333677509</v>
+        <v>19.6780346362112</v>
       </c>
       <c r="D6" t="n">
-        <v>26.516321023039</v>
+        <v>31.4050286321268</v>
       </c>
       <c r="E6" t="n">
-        <v>11.9895554049118</v>
+        <v>14.0479637319858</v>
       </c>
       <c r="F6" t="n">
-        <v>9.06701124121827</v>
+        <v>10.5726420457978</v>
       </c>
       <c r="G6" t="n">
-        <v>7.79545330328971</v>
+        <v>9.06735853865069</v>
       </c>
       <c r="H6" t="n">
-        <v>7.07945716977599</v>
+        <v>8.22275555412524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.64732340444406</v>
+        <v>1.8763651000921</v>
       </c>
       <c r="B7" t="n">
-        <v>4.93260103637622</v>
+        <v>5.53100707363749</v>
       </c>
       <c r="C7" t="n">
-        <v>27.8964804065464</v>
+        <v>30.5024991062887</v>
       </c>
       <c r="D7" t="n">
-        <v>44.166338464406</v>
+        <v>47.7812327420045</v>
       </c>
       <c r="E7" t="n">
-        <v>19.6700558920869</v>
+        <v>21.1926759004442</v>
       </c>
       <c r="F7" t="n">
-        <v>14.7689312159946</v>
+        <v>15.8827661942652</v>
       </c>
       <c r="G7" t="n">
-        <v>12.6488734921784</v>
+        <v>13.5898396827433</v>
       </c>
       <c r="H7" t="n">
-        <v>11.4606096290498</v>
+        <v>12.3064478191278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.12856793261346</v>
+        <v>0.220967280480037</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.43808803346092</v>
+        <v>1.62468620529542</v>
       </c>
       <c r="C8" t="n">
-        <v>-9.40715193717695</v>
+        <v>8.72996061037151</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.8192583094513</v>
+        <v>13.5563082275561</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.65076182182918</v>
+        <v>6.06546524457477</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.25303956964453</v>
+        <v>4.5936176605078</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.66689512196331</v>
+        <v>3.96482691787097</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.34811917441694</v>
+        <v>3.61457897012605</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.866303642868223</v>
+        <v>0.492668879407741</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.27774517916645</v>
+        <v>2.72524990946366</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.89895425338924</v>
+        <v>14.0742406277786</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.85851083558705</v>
+        <v>21.3611350021002</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.25083916853699</v>
+        <v>9.40939530830552</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.761794676505728</v>
+        <v>7.0467455232569</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.568452324241072</v>
+        <v>6.03235937157192</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.469886468716688</v>
+        <v>5.46576814070334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.135656574981264</v>
+        <v>1.22900903415979</v>
       </c>
       <c r="B10" t="n">
-        <v>1.79727516094043</v>
+        <v>5.72394091973687</v>
       </c>
       <c r="C10" t="n">
-        <v>10.7511053460829</v>
+        <v>28.467435412648</v>
       </c>
       <c r="D10" t="n">
-        <v>17.260884157591</v>
+        <v>42.2000256315454</v>
       </c>
       <c r="E10" t="n">
-        <v>7.74439423917694</v>
+        <v>18.2975980514304</v>
       </c>
       <c r="F10" t="n">
-        <v>5.82588324070437</v>
+        <v>13.5594262404455</v>
       </c>
       <c r="G10" t="n">
-        <v>4.98668886474763</v>
+        <v>11.5257204603655</v>
       </c>
       <c r="H10" t="n">
-        <v>4.51185667507008</v>
+        <v>10.3929857991022</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-22.9959614813637</v>
+        <v>-48.5452908433832</v>
       </c>
       <c r="B5" t="n">
-        <v>-93.0596645541911</v>
+        <v>-162.025452943255</v>
       </c>
       <c r="C5" t="n">
-        <v>-704.891659532323</v>
+        <v>-1001.61308664872</v>
       </c>
       <c r="D5" t="n">
-        <v>-1237.77686073464</v>
+        <v>-1648.036269392</v>
       </c>
       <c r="E5" t="n">
-        <v>-575.192094735181</v>
+        <v>-747.887482526916</v>
       </c>
       <c r="F5" t="n">
-        <v>-440.736056763038</v>
+        <v>-567.046987960652</v>
       </c>
       <c r="G5" t="n">
-        <v>-381.613147319033</v>
+        <v>-488.314082204766</v>
       </c>
       <c r="H5" t="n">
-        <v>-348.01473481574</v>
+        <v>-443.925943263112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-37.3435775828422</v>
+        <v>-51.9185939039573</v>
       </c>
       <c r="B6" t="n">
-        <v>-123.844509522037</v>
+        <v>-162.682092497297</v>
       </c>
       <c r="C6" t="n">
-        <v>-769.277313221083</v>
+        <v>-937.472322840875</v>
       </c>
       <c r="D6" t="n">
-        <v>-1263.25202299008</v>
+        <v>-1496.15272484919</v>
       </c>
       <c r="E6" t="n">
-        <v>-571.188971005703</v>
+        <v>-669.252668494375</v>
       </c>
       <c r="F6" t="n">
-        <v>-431.957370066192</v>
+        <v>-503.686444326107</v>
       </c>
       <c r="G6" t="n">
-        <v>-371.379655079196</v>
+        <v>-431.973915505648</v>
       </c>
       <c r="H6" t="n">
-        <v>-337.269208033076</v>
+        <v>-391.736567802013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-49.6761484923001</v>
+        <v>-56.5830553287145</v>
       </c>
       <c r="B7" t="n">
-        <v>-148.745911625649</v>
+        <v>-166.791249344693</v>
       </c>
       <c r="C7" t="n">
-        <v>-841.237184726225</v>
+        <v>-919.8234365532</v>
       </c>
       <c r="D7" t="n">
-        <v>-1331.86572958299</v>
+        <v>-1440.87530501518</v>
       </c>
       <c r="E7" t="n">
-        <v>-593.163804211787</v>
+        <v>-639.079437674198</v>
       </c>
       <c r="F7" t="n">
-        <v>-445.36708346344</v>
+        <v>-478.955528590376</v>
       </c>
       <c r="G7" t="n">
-        <v>-381.435312679134</v>
+        <v>-409.81078290109</v>
       </c>
       <c r="H7" t="n">
-        <v>-345.602414321976</v>
+        <v>-371.109235518965</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92.5805035710175</v>
+        <v>-18.1267440872493</v>
       </c>
       <c r="B8" t="n">
-        <v>200.005167048809</v>
+        <v>-133.278877313851</v>
       </c>
       <c r="C8" t="n">
-        <v>771.702649300076</v>
+        <v>-716.150198944351</v>
       </c>
       <c r="D8" t="n">
-        <v>969.576446843556</v>
+        <v>-1112.07292534417</v>
       </c>
       <c r="E8" t="n">
-        <v>381.518789442055</v>
+        <v>-497.572020706679</v>
       </c>
       <c r="F8" t="n">
-        <v>266.858584929587</v>
+        <v>-376.831047500791</v>
       </c>
       <c r="G8" t="n">
-        <v>218.775038903236</v>
+        <v>-325.249071873233</v>
       </c>
       <c r="H8" t="n">
-        <v>192.624696600111</v>
+        <v>-296.516967726121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-37.6516297687917</v>
+        <v>21.4125686747083</v>
       </c>
       <c r="B9" t="n">
-        <v>-55.5338636988184</v>
+        <v>118.445883799853</v>
       </c>
       <c r="C9" t="n">
-        <v>-169.457883783132</v>
+        <v>611.70018359788</v>
       </c>
       <c r="D9" t="n">
-        <v>-167.700116046371</v>
+        <v>928.406053883577</v>
       </c>
       <c r="E9" t="n">
-        <v>-54.3644640788174</v>
+        <v>408.954840964943</v>
       </c>
       <c r="F9" t="n">
-        <v>-33.109419954261</v>
+        <v>306.268426435462</v>
       </c>
       <c r="G9" t="n">
-        <v>-24.7062985706383</v>
+        <v>262.180776406219</v>
       </c>
       <c r="H9" t="n">
-        <v>-20.4223905776382</v>
+        <v>237.555365407973</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.18675149336852</v>
+        <v>28.8710397967296</v>
       </c>
       <c r="B10" t="n">
-        <v>42.2203590494017</v>
+        <v>134.462905881591</v>
       </c>
       <c r="C10" t="n">
-        <v>252.5576148574</v>
+        <v>668.737525815887</v>
       </c>
       <c r="D10" t="n">
-        <v>405.480887112633</v>
+        <v>991.334144475421</v>
       </c>
       <c r="E10" t="n">
-        <v>181.926013614454</v>
+        <v>429.834660970218</v>
       </c>
       <c r="F10" t="n">
-        <v>136.8576651745</v>
+        <v>318.528768892536</v>
       </c>
       <c r="G10" t="n">
-        <v>117.143884761159</v>
+        <v>270.754343416754</v>
       </c>
       <c r="H10" t="n">
-        <v>105.989451665945</v>
+        <v>244.144915352764</v>
       </c>
     </row>
     <row r="11">
@@ -2959,106 +2959,106 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.86486628159818</v>
+        <v>-10.2699053808098</v>
       </c>
       <c r="B5" t="n">
-        <v>-19.6870578615908</v>
+        <v>-34.2769822180782</v>
       </c>
       <c r="C5" t="n">
-        <v>-149.121995591168</v>
+        <v>-211.894324853246</v>
       </c>
       <c r="D5" t="n">
-        <v>-261.855496618847</v>
+        <v>-348.647134598547</v>
       </c>
       <c r="E5" t="n">
-        <v>-121.683654296723</v>
+        <v>-158.217894003829</v>
       </c>
       <c r="F5" t="n">
-        <v>-93.2390664929872</v>
+        <v>-119.960531941541</v>
       </c>
       <c r="G5" t="n">
-        <v>-80.7314334089252</v>
+        <v>-103.3043439072</v>
       </c>
       <c r="H5" t="n">
-        <v>-73.6235860490763</v>
+        <v>-93.9138967795535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-9.23513782172488</v>
+        <v>-12.8395671022561</v>
       </c>
       <c r="B6" t="n">
-        <v>-30.6269829494168</v>
+        <v>-40.2315911486054</v>
       </c>
       <c r="C6" t="n">
-        <v>-190.243743919894</v>
+        <v>-231.838689967024</v>
       </c>
       <c r="D6" t="n">
-        <v>-312.404629952926</v>
+        <v>-370.001416861567</v>
       </c>
       <c r="E6" t="n">
-        <v>-141.256119818325</v>
+        <v>-165.507458876743</v>
       </c>
       <c r="F6" t="n">
-        <v>-106.823879871219</v>
+        <v>-124.562616475808</v>
       </c>
       <c r="G6" t="n">
-        <v>-91.8428956420298</v>
+        <v>-106.827971589892</v>
       </c>
       <c r="H6" t="n">
-        <v>-83.4073171564726</v>
+        <v>-96.8771989088496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-13.2612324961537</v>
+        <v>-15.1050569504824</v>
       </c>
       <c r="B7" t="n">
-        <v>-39.708274026635</v>
+        <v>-44.525544008847</v>
       </c>
       <c r="C7" t="n">
-        <v>-224.571393508768</v>
+        <v>-245.550285554723</v>
       </c>
       <c r="D7" t="n">
-        <v>-355.546507322264</v>
+        <v>-384.647018694181</v>
       </c>
       <c r="E7" t="n">
-        <v>-158.347282442293</v>
+        <v>-170.604631472635</v>
       </c>
       <c r="F7" t="n">
-        <v>-118.892398448685</v>
+        <v>-127.858958730258</v>
       </c>
       <c r="G7" t="n">
-        <v>-101.825574590694</v>
+        <v>-109.400511843717</v>
       </c>
       <c r="H7" t="n">
-        <v>-92.2598491762334</v>
+        <v>-99.0689899087022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34.2767032697458</v>
+        <v>-6.71118652804314</v>
       </c>
       <c r="B8" t="n">
-        <v>74.049259821634</v>
+        <v>-49.3447362414421</v>
       </c>
       <c r="C8" t="n">
-        <v>285.712668458806</v>
+        <v>-265.145110676083</v>
       </c>
       <c r="D8" t="n">
-        <v>358.972816995943</v>
+        <v>-411.730247795642</v>
       </c>
       <c r="E8" t="n">
-        <v>141.252270544268</v>
+        <v>-184.219439852235</v>
       </c>
       <c r="F8" t="n">
-        <v>98.8008509113275</v>
+        <v>-139.516696278326</v>
       </c>
       <c r="G8" t="n">
-        <v>80.9985558737106</v>
+        <v>-120.419154091198</v>
       </c>
       <c r="H8" t="n">
-        <v>71.3167385476803</v>
+        <v>-109.781473692208</v>
       </c>
     </row>
     <row r="9">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.42054292720294</v>
+        <v>2.9988165362194</v>
       </c>
       <c r="B5" t="n">
-        <v>5.74862887979124</v>
+        <v>10.0088927089186</v>
       </c>
       <c r="C5" t="n">
-        <v>43.5436831899583</v>
+        <v>61.8732287921872</v>
       </c>
       <c r="D5" t="n">
-        <v>76.4619112098015</v>
+        <v>101.805104698753</v>
       </c>
       <c r="E5" t="n">
-        <v>35.5316764041931</v>
+        <v>46.1996892153526</v>
       </c>
       <c r="F5" t="n">
-        <v>27.2258452296259</v>
+        <v>35.0285239776575</v>
       </c>
       <c r="G5" t="n">
-        <v>23.5736112965327</v>
+        <v>30.1649103166109</v>
       </c>
       <c r="H5" t="n">
-        <v>21.4981169848259</v>
+        <v>27.4228959469848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.7753295850344</v>
+        <v>5.24882232143325</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5203280190659</v>
+        <v>16.4466973041848</v>
       </c>
       <c r="C6" t="n">
-        <v>77.7717505307718</v>
+        <v>94.7757880915571</v>
       </c>
       <c r="D6" t="n">
-        <v>127.711190101407</v>
+        <v>151.256789291881</v>
       </c>
       <c r="E6" t="n">
-        <v>57.7455819839278</v>
+        <v>67.6595431603993</v>
       </c>
       <c r="F6" t="n">
-        <v>43.6696627436633</v>
+        <v>50.9212683392935</v>
       </c>
       <c r="G6" t="n">
-        <v>37.5454278848889</v>
+        <v>43.6713354405799</v>
       </c>
       <c r="H6" t="n">
-        <v>34.0969586104525</v>
+        <v>39.6034539187343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.29414001354608</v>
+        <v>6.03023032977026</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8523095386672</v>
+        <v>17.7754567104161</v>
       </c>
       <c r="C7" t="n">
-        <v>89.6532355207105</v>
+        <v>98.0284142118741</v>
       </c>
       <c r="D7" t="n">
-        <v>141.941029360378</v>
+        <v>153.558515270032</v>
       </c>
       <c r="E7" t="n">
-        <v>63.2152919615253</v>
+        <v>68.1086623160797</v>
       </c>
       <c r="F7" t="n">
-        <v>47.4641406156032</v>
+        <v>51.0437645747125</v>
       </c>
       <c r="G7" t="n">
-        <v>40.6507350654826</v>
+        <v>43.674796247048</v>
       </c>
       <c r="H7" t="n">
-        <v>36.8319128187586</v>
+        <v>39.5502532460217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.88408630473368</v>
+        <v>1.15207114369796</v>
       </c>
       <c r="B8" t="n">
-        <v>-12.7116144211197</v>
+        <v>8.47072965109921</v>
       </c>
       <c r="C8" t="n">
-        <v>-49.0466654957229</v>
+        <v>45.5159500672658</v>
       </c>
       <c r="D8" t="n">
-        <v>-61.6228176798392</v>
+        <v>70.6793851565441</v>
       </c>
       <c r="E8" t="n">
-        <v>-24.2479722767174</v>
+        <v>31.6239013585942</v>
       </c>
       <c r="F8" t="n">
-        <v>-16.960579002255</v>
+        <v>23.9500361336551</v>
       </c>
       <c r="G8" t="n">
-        <v>-13.9045604698039</v>
+        <v>20.6716699047611</v>
       </c>
       <c r="H8" t="n">
-        <v>-12.2425380668702</v>
+        <v>18.8455599356301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.4089079045808</v>
+        <v>1.36995148031116</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.55299263424924</v>
+        <v>7.57803121677942</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.8417202188967</v>
+        <v>39.1358731760351</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.7292602637366</v>
+        <v>59.3983499676962</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.47817579350337</v>
+        <v>26.1644596812004</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.11830255247047</v>
+        <v>19.5947011562146</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.58068052525775</v>
+        <v>16.7740240885286</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.30660102617088</v>
+        <v>15.1985186569843</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.187821513950553</v>
+        <v>1.70160817849543</v>
       </c>
       <c r="B10" t="n">
-        <v>2.4883935169392</v>
+        <v>7.92500657971778</v>
       </c>
       <c r="C10" t="n">
-        <v>14.885300495181</v>
+        <v>39.4142106140567</v>
       </c>
       <c r="D10" t="n">
-        <v>23.8983285185522</v>
+        <v>58.4274864964244</v>
       </c>
       <c r="E10" t="n">
-        <v>10.7223984597359</v>
+        <v>25.3336970077048</v>
       </c>
       <c r="F10" t="n">
-        <v>8.06614946986073</v>
+        <v>18.7735239897739</v>
       </c>
       <c r="G10" t="n">
-        <v>6.90425401280122</v>
+        <v>15.957783590922</v>
       </c>
       <c r="H10" t="n">
-        <v>6.24683139432504</v>
+        <v>14.3894708201468</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_4.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>2.7867324712839</v>
@@ -490,39 +502,45 @@
         <v>8.99542248627615</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00599498519628634</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00599498519628634</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.6</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>2.65746172833116</v>
@@ -537,39 +555,45 @@
         <v>8.95524980890835</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00590052594900893</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00590052594900893</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.595833333333333</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>2.51667896872842</v>
@@ -584,39 +608,45 @@
         <v>8.96067854909318</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00588721160345656</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00588721160345656</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.591666666666667</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>2.60757182057431</v>
@@ -631,39 +661,45 @@
         <v>9.03993815579182</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00584457449839147</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00584457449839147</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.591666666666667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>2.52240714547771</v>
@@ -678,39 +714,45 @@
         <v>9.03993815579182</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00580247416980043</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00580247416980043</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>2.44041635287006</v>
@@ -725,39 +767,45 @@
         <v>9.04319539990272</v>
       </c>
       <c r="F7" t="n">
+        <v>0.00573682576397267</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00573682576397267</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>2.36784285797599</v>
@@ -772,39 +820,45 @@
         <v>9.13222673893406</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00556898947001782</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00556898947001782</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.579166666666667</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>2.3131774302818</v>
@@ -819,39 +873,45 @@
         <v>9.17891390452366</v>
       </c>
       <c r="F9" t="n">
+        <v>0.00556644458643608</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00556644458643608</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>2.25943874111394</v>
@@ -866,39 +926,45 @@
         <v>9.17891390452366</v>
       </c>
       <c r="F10" t="n">
+        <v>0.00556162823038733</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00556162823038733</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>2.1828024996387</v>
@@ -913,33 +979,39 @@
         <v>9.17891390452366</v>
       </c>
       <c r="F11" t="n">
+        <v>0.00548092608841548</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00548092608841548</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>-0.183491418247515</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000514059107870867</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000514059107870867</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0375</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>-0.223664095615314</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000419599860593453</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000419599860593453</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0333333333333333</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>-0.218235355430476</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000406285515041087</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000406285515041087</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0291666666666667</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>-0.138975748731845</v>
       </c>
       <c r="E5" t="n">
+        <v>0.000363648409975992</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000363648409975992</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0291666666666667</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>-0.138975748731845</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000321548081384955</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000321548081384955</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>-0.135718504620943</v>
       </c>
       <c r="E7" t="n">
+        <v>0.000255899675557191</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000255899675557191</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>-0.0466871655896046</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0000880633816023471</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0000880633816023471</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0.000085518498020601</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.000085518498020601</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0000807021419718511</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0000807021419718511</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>-0.0199905370238939</v>
       </c>
       <c r="E2" t="n">
+        <v>0.0937905564823044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0937905564823044</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0666666666666666</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>-0.0243671634729121</v>
       </c>
       <c r="E3" t="n">
+        <v>0.0765563800395561</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0765563800395561</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0592592592592592</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>-0.023775727466288</v>
       </c>
       <c r="E4" t="n">
+        <v>0.074127165462022</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.074127165462022</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0518518518518519</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>-0.0151407617695764</v>
       </c>
       <c r="E5" t="n">
+        <v>0.0663479864734176</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0663479864734176</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0518518518518519</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>-0.0151407617695764</v>
       </c>
       <c r="E6" t="n">
+        <v>0.0586667428456262</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0586667428456262</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0370370370370371</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>-0.014785900165602</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0466891308930552</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0466891308930552</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0370370370370371</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>-0.00508634965696712</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0160672448746351</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0160672448746351</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0296296296296297</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0156029285272344</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0156029285272344</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0370370370370371</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0147241799414927</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0147241799414927</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0370370370370371</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.84221938632872</v>
+        <v>2.02025981643114</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5358951217879</v>
+        <v>8.19975596296799</v>
       </c>
       <c r="C2" t="n">
-        <v>68.2685034053508</v>
+        <v>48.5254990593366</v>
       </c>
       <c r="D2" t="n">
-        <v>110.458357005142</v>
+        <v>78.5141995441602</v>
       </c>
       <c r="E2" t="n">
-        <v>49.926655124109</v>
+        <v>35.4880469823055</v>
       </c>
       <c r="F2" t="n">
-        <v>37.8423301878771</v>
+        <v>26.89846512427</v>
       </c>
       <c r="G2" t="n">
-        <v>32.6089494336057</v>
+        <v>23.1785591617696</v>
       </c>
       <c r="H2" t="n">
-        <v>29.6683141420417</v>
+        <v>21.0883449640542</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.13380590274059</v>
+        <v>3.19981529418434</v>
       </c>
       <c r="B3" t="n">
-        <v>14.9998511600369</v>
+        <v>11.6107902213199</v>
       </c>
       <c r="C3" t="n">
-        <v>83.6003425686309</v>
+        <v>64.7117114455731</v>
       </c>
       <c r="D3" t="n">
-        <v>131.507919524046</v>
+        <v>101.795067814003</v>
       </c>
       <c r="E3" t="n">
-        <v>58.5719545591543</v>
+        <v>45.3382283586172</v>
       </c>
       <c r="F3" t="n">
-        <v>44.0211449294963</v>
+        <v>34.0750233869283</v>
       </c>
       <c r="G3" t="n">
-        <v>37.734273050763</v>
+        <v>29.2086050636075</v>
       </c>
       <c r="H3" t="n">
-        <v>34.2112497201905</v>
+        <v>26.4815723484381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.51939375241762</v>
+        <v>3.86080845501938</v>
       </c>
       <c r="B4" t="n">
-        <v>18.340127211359</v>
+        <v>12.8288941467041</v>
       </c>
       <c r="C4" t="n">
-        <v>98.0691156535414</v>
+        <v>68.5992135867493</v>
       </c>
       <c r="D4" t="n">
-        <v>151.251783039859</v>
+        <v>105.800417399331</v>
       </c>
       <c r="E4" t="n">
-        <v>66.6698134859148</v>
+        <v>46.6354442438969</v>
       </c>
       <c r="F4" t="n">
-        <v>49.8132525788361</v>
+        <v>34.8443027178748</v>
       </c>
       <c r="G4" t="n">
-        <v>42.5465322530353</v>
+        <v>29.7612416911408</v>
       </c>
       <c r="H4" t="n">
-        <v>38.4847814231984</v>
+        <v>26.9200524864121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.9988165362194</v>
+        <v>2.34361582064334</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0088927089186</v>
+        <v>7.82208548486784</v>
       </c>
       <c r="C5" t="n">
-        <v>61.8732287921872</v>
+        <v>48.3547679960659</v>
       </c>
       <c r="D5" t="n">
-        <v>101.805104698753</v>
+        <v>79.5620709411727</v>
       </c>
       <c r="E5" t="n">
-        <v>46.1996892153526</v>
+        <v>36.1056841077738</v>
       </c>
       <c r="F5" t="n">
-        <v>35.0285239776575</v>
+        <v>27.3752668682151</v>
       </c>
       <c r="G5" t="n">
-        <v>30.1649103166109</v>
+        <v>23.5742867869542</v>
       </c>
       <c r="H5" t="n">
-        <v>27.4228959469848</v>
+        <v>21.4313653446213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.24882232143325</v>
+        <v>3.31364615266422</v>
       </c>
       <c r="B6" t="n">
-        <v>16.4466973041848</v>
+        <v>10.3830024924836</v>
       </c>
       <c r="C6" t="n">
-        <v>94.7757880915571</v>
+        <v>59.8331218591433</v>
       </c>
       <c r="D6" t="n">
-        <v>151.256789291881</v>
+        <v>95.4902732856314</v>
       </c>
       <c r="E6" t="n">
-        <v>67.6595431603993</v>
+        <v>42.7143025910725</v>
       </c>
       <c r="F6" t="n">
-        <v>50.9212683392935</v>
+        <v>32.1472236223853</v>
       </c>
       <c r="G6" t="n">
-        <v>43.6713354405799</v>
+        <v>27.5702517255092</v>
       </c>
       <c r="H6" t="n">
-        <v>39.6034539187343</v>
+        <v>25.0021480388375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.03023032977026</v>
+        <v>4.78359437825361</v>
       </c>
       <c r="B7" t="n">
-        <v>17.7754567104161</v>
+        <v>14.1007175747591</v>
       </c>
       <c r="C7" t="n">
-        <v>98.0284142118741</v>
+        <v>77.7628955262314</v>
       </c>
       <c r="D7" t="n">
-        <v>153.558515270032</v>
+        <v>121.813199531084</v>
       </c>
       <c r="E7" t="n">
-        <v>68.1086623160797</v>
+        <v>54.0284858701217</v>
       </c>
       <c r="F7" t="n">
-        <v>51.0437645747125</v>
+        <v>40.4914326504337</v>
       </c>
       <c r="G7" t="n">
-        <v>43.674796247048</v>
+        <v>34.6458590092876</v>
       </c>
       <c r="H7" t="n">
-        <v>39.5502532460217</v>
+        <v>31.3739871845631</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.15207114369796</v>
+        <v>2.12453607081344</v>
       </c>
       <c r="B8" t="n">
-        <v>8.47072965109921</v>
+        <v>15.620884863155</v>
       </c>
       <c r="C8" t="n">
-        <v>45.5159500672658</v>
+        <v>83.9360296837722</v>
       </c>
       <c r="D8" t="n">
-        <v>70.6793851565441</v>
+        <v>130.339956910996</v>
       </c>
       <c r="E8" t="n">
-        <v>31.6239013585942</v>
+        <v>58.3176824657919</v>
       </c>
       <c r="F8" t="n">
-        <v>23.9500361336551</v>
+        <v>44.1662964492889</v>
       </c>
       <c r="G8" t="n">
-        <v>20.6716699047611</v>
+        <v>38.1206565209548</v>
       </c>
       <c r="H8" t="n">
-        <v>18.8455599356301</v>
+        <v>34.7531244723368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.36995148031116</v>
+        <v>3.25188592812337</v>
       </c>
       <c r="B9" t="n">
-        <v>7.57803121677942</v>
+        <v>17.988150259984</v>
       </c>
       <c r="C9" t="n">
-        <v>39.1358731760351</v>
+        <v>92.897739149903</v>
       </c>
       <c r="D9" t="n">
-        <v>59.3983499676962</v>
+        <v>140.995255080002</v>
       </c>
       <c r="E9" t="n">
-        <v>26.1644596812004</v>
+        <v>62.1071910042549</v>
       </c>
       <c r="F9" t="n">
-        <v>19.5947011562146</v>
+        <v>46.512401257601</v>
       </c>
       <c r="G9" t="n">
-        <v>16.7740240885286</v>
+        <v>39.8168940108005</v>
       </c>
       <c r="H9" t="n">
-        <v>15.1985186569843</v>
+        <v>36.0770798523041</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.70160817849543</v>
+        <v>4.28020612216666</v>
       </c>
       <c r="B10" t="n">
-        <v>7.92500657971778</v>
+        <v>19.9344726414702</v>
       </c>
       <c r="C10" t="n">
-        <v>39.4142106140567</v>
+        <v>99.1420631980141</v>
       </c>
       <c r="D10" t="n">
-        <v>58.4274864964244</v>
+        <v>146.967844046171</v>
       </c>
       <c r="E10" t="n">
-        <v>25.3336970077048</v>
+        <v>63.724097239219</v>
       </c>
       <c r="F10" t="n">
-        <v>18.7735239897739</v>
+        <v>47.2227116272577</v>
       </c>
       <c r="G10" t="n">
-        <v>15.957783590922</v>
+        <v>40.1400298172454</v>
       </c>
       <c r="H10" t="n">
-        <v>14.3894708201468</v>
+        <v>36.1951134682422</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
+      <c r="A2" t="n">
+        <v>2.02025981643114</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.19975596296799</v>
+      </c>
+      <c r="C2" t="n">
+        <v>48.5254990593366</v>
+      </c>
+      <c r="D2" t="n">
+        <v>78.5141995441602</v>
+      </c>
+      <c r="E2" t="n">
+        <v>35.4880469823055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26.89846512427</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23.1785591617696</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21.0883449640542</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
+      <c r="A3" t="n">
+        <v>3.19981529418434</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11.6107902213199</v>
+      </c>
+      <c r="C3" t="n">
+        <v>64.7117114455731</v>
+      </c>
+      <c r="D3" t="n">
+        <v>101.795067814003</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45.3382283586172</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34.0750233869283</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29.2086050636075</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26.4815723484381</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
+      <c r="A4" t="n">
+        <v>3.86080845501938</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.8288941467041</v>
+      </c>
+      <c r="C4" t="n">
+        <v>68.5992135867493</v>
+      </c>
+      <c r="D4" t="n">
+        <v>105.800417399331</v>
+      </c>
+      <c r="E4" t="n">
+        <v>46.6354442438969</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34.8443027178748</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.7612416911408</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.9200524864121</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
+      <c r="A5" t="n">
+        <v>2.34361582064334</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.82208548486784</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48.3547679960659</v>
+      </c>
+      <c r="D5" t="n">
+        <v>79.5620709411727</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36.1056841077738</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27.3752668682151</v>
+      </c>
+      <c r="G5" t="n">
+        <v>23.5742867869542</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.4313653446213</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
+      <c r="A6" t="n">
+        <v>3.31364615266422</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.3830024924836</v>
+      </c>
+      <c r="C6" t="n">
+        <v>59.8331218591433</v>
+      </c>
+      <c r="D6" t="n">
+        <v>95.4902732856314</v>
+      </c>
+      <c r="E6" t="n">
+        <v>42.7143025910725</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32.1472236223853</v>
+      </c>
+      <c r="G6" t="n">
+        <v>27.5702517255092</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25.0021480388375</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
+      <c r="A7" t="n">
+        <v>4.78359437825361</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.1007175747591</v>
+      </c>
+      <c r="C7" t="n">
+        <v>77.7628955262314</v>
+      </c>
+      <c r="D7" t="n">
+        <v>121.813199531084</v>
+      </c>
+      <c r="E7" t="n">
+        <v>54.0284858701217</v>
+      </c>
+      <c r="F7" t="n">
+        <v>40.4914326504337</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34.6458590092876</v>
+      </c>
+      <c r="H7" t="n">
+        <v>31.3739871845631</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="A8" t="n">
+        <v>2.12453607081344</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15.620884863155</v>
+      </c>
+      <c r="C8" t="n">
+        <v>83.9360296837722</v>
+      </c>
+      <c r="D8" t="n">
+        <v>130.339956910996</v>
+      </c>
+      <c r="E8" t="n">
+        <v>58.3176824657919</v>
+      </c>
+      <c r="F8" t="n">
+        <v>44.1662964492889</v>
+      </c>
+      <c r="G8" t="n">
+        <v>38.1206565209548</v>
+      </c>
+      <c r="H8" t="n">
+        <v>34.7531244723368</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>3.25188592812337</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17.988150259984</v>
+      </c>
+      <c r="C9" t="n">
+        <v>92.897739149903</v>
+      </c>
+      <c r="D9" t="n">
+        <v>140.995255080002</v>
+      </c>
+      <c r="E9" t="n">
+        <v>62.1071910042549</v>
+      </c>
+      <c r="F9" t="n">
+        <v>46.512401257601</v>
+      </c>
+      <c r="G9" t="n">
+        <v>39.8168940108005</v>
+      </c>
+      <c r="H9" t="n">
+        <v>36.0770798523041</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
+      <c r="A10" t="n">
+        <v>4.28020612216666</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.9344726414702</v>
+      </c>
+      <c r="C10" t="n">
+        <v>99.1420631980141</v>
+      </c>
+      <c r="D10" t="n">
+        <v>146.967844046171</v>
+      </c>
+      <c r="E10" t="n">
+        <v>63.724097239219</v>
+      </c>
+      <c r="F10" t="n">
+        <v>47.2227116272577</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40.1400298172454</v>
+      </c>
+      <c r="H10" t="n">
+        <v>36.1951134682422</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_4.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_4.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.84221938632872</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11.5358951217879</v>
+      </c>
+      <c r="C2" t="n">
+        <v>68.2685034053508</v>
+      </c>
+      <c r="D2" t="n">
+        <v>110.458357005142</v>
+      </c>
+      <c r="E2" t="n">
+        <v>49.926655124109</v>
+      </c>
+      <c r="F2" t="n">
+        <v>37.8423301878771</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32.6089494336057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29.6683141420417</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.13380590274059</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.9998511600369</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83.6003425686309</v>
+      </c>
+      <c r="D3" t="n">
+        <v>131.507919524046</v>
+      </c>
+      <c r="E3" t="n">
+        <v>58.5719545591543</v>
+      </c>
+      <c r="F3" t="n">
+        <v>44.0211449294963</v>
+      </c>
+      <c r="G3" t="n">
+        <v>37.734273050763</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34.2112497201905</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5.51939375241762</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18.340127211359</v>
+      </c>
+      <c r="C4" t="n">
+        <v>98.0691156535414</v>
+      </c>
+      <c r="D4" t="n">
+        <v>151.251783039859</v>
+      </c>
+      <c r="E4" t="n">
+        <v>66.6698134859148</v>
+      </c>
+      <c r="F4" t="n">
+        <v>49.8132525788361</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42.5465322530353</v>
+      </c>
+      <c r="H4" t="n">
+        <v>38.4847814231984</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.9988165362194</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10.0088927089186</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61.8732287921872</v>
+      </c>
+      <c r="D5" t="n">
+        <v>101.805104698753</v>
+      </c>
+      <c r="E5" t="n">
+        <v>46.1996892153526</v>
+      </c>
+      <c r="F5" t="n">
+        <v>35.0285239776575</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.1649103166109</v>
+      </c>
+      <c r="H5" t="n">
+        <v>27.4228959469848</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.24882232143325</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.4466973041848</v>
+      </c>
+      <c r="C6" t="n">
+        <v>94.7757880915571</v>
+      </c>
+      <c r="D6" t="n">
+        <v>151.256789291881</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67.6595431603993</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50.9212683392935</v>
+      </c>
+      <c r="G6" t="n">
+        <v>43.6713354405799</v>
+      </c>
+      <c r="H6" t="n">
+        <v>39.6034539187343</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.03023032977026</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17.7754567104161</v>
+      </c>
+      <c r="C7" t="n">
+        <v>98.0284142118741</v>
+      </c>
+      <c r="D7" t="n">
+        <v>153.558515270032</v>
+      </c>
+      <c r="E7" t="n">
+        <v>68.1086623160797</v>
+      </c>
+      <c r="F7" t="n">
+        <v>51.0437645747125</v>
+      </c>
+      <c r="G7" t="n">
+        <v>43.674796247048</v>
+      </c>
+      <c r="H7" t="n">
+        <v>39.5502532460217</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.15207114369796</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.47072965109921</v>
+      </c>
+      <c r="C8" t="n">
+        <v>45.5159500672658</v>
+      </c>
+      <c r="D8" t="n">
+        <v>70.6793851565441</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.6239013585942</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23.9500361336551</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20.6716699047611</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18.8455599356301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.36995148031116</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.57803121677942</v>
+      </c>
+      <c r="C9" t="n">
+        <v>39.1358731760351</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59.3983499676962</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26.1644596812004</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19.5947011562146</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.7740240885286</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15.1985186569843</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.70160817849543</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.92500657971778</v>
+      </c>
+      <c r="C10" t="n">
+        <v>39.4142106140567</v>
+      </c>
+      <c r="D10" t="n">
+        <v>58.4274864964244</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25.3336970077048</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18.7735239897739</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.957783590922</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.3894708201468</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_4.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_4.xlsx
@@ -504,7 +504,7 @@
         <v>8.99542248627615</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00599498519628634</v>
+        <v>1.44918139850592</v>
       </c>
       <c r="G2" t="n">
         <v>0.00599498519628634</v>
@@ -557,7 +557,7 @@
         <v>8.95524980890835</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00590052594900893</v>
+        <v>1.41318867268559</v>
       </c>
       <c r="G3" t="n">
         <v>0.00590052594900893</v>
@@ -610,7 +610,7 @@
         <v>8.96067854909318</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00588721160345656</v>
+        <v>1.38090793992349</v>
       </c>
       <c r="G4" t="n">
         <v>0.00588721160345656</v>
@@ -663,7 +663,7 @@
         <v>9.03993815579182</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00584457449839147</v>
+        <v>1.40721440372312</v>
       </c>
       <c r="G5" t="n">
         <v>0.00584457449839147</v>
@@ -716,7 +716,7 @@
         <v>9.03993815579182</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00580247416980043</v>
+        <v>1.37983528475841</v>
       </c>
       <c r="G6" t="n">
         <v>0.00580247416980043</v>
@@ -769,7 +769,7 @@
         <v>9.04319539990272</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00573682576397267</v>
+        <v>1.37542835547774</v>
       </c>
       <c r="G7" t="n">
         <v>0.00573682576397267</v>
@@ -822,7 +822,7 @@
         <v>9.13222673893406</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00556898947001782</v>
+        <v>1.37974576036163</v>
       </c>
       <c r="G8" t="n">
         <v>0.00556898947001782</v>
@@ -875,7 +875,7 @@
         <v>9.17891390452366</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00556644458643608</v>
+        <v>1.36698386368844</v>
       </c>
       <c r="G9" t="n">
         <v>0.00556644458643608</v>
@@ -928,7 +928,7 @@
         <v>9.17891390452366</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00556162823038733</v>
+        <v>1.33598954352809</v>
       </c>
       <c r="G10" t="n">
         <v>0.00556162823038733</v>
@@ -981,7 +981,7 @@
         <v>9.17891390452366</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00548092608841548</v>
+        <v>1.28753962456057</v>
       </c>
       <c r="G11" t="n">
         <v>0.00548092608841548</v>
@@ -1695,7 +1695,7 @@
         <v>-0.183491418247515</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000514059107870867</v>
+        <v>0.161641773945357</v>
       </c>
       <c r="F2" t="n">
         <v>0.000514059107870867</v>
@@ -1745,7 +1745,7 @@
         <v>-0.223664095615314</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000419599860593453</v>
+        <v>0.125649048125025</v>
       </c>
       <c r="F3" t="n">
         <v>0.000419599860593453</v>
@@ -1795,7 +1795,7 @@
         <v>-0.218235355430476</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000406285515041087</v>
+        <v>0.0933683153629241</v>
       </c>
       <c r="F4" t="n">
         <v>0.000406285515041087</v>
@@ -1845,7 +1845,7 @@
         <v>-0.138975748731845</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000363648409975992</v>
+        <v>0.11967477916255</v>
       </c>
       <c r="F5" t="n">
         <v>0.000363648409975992</v>
@@ -1895,7 +1895,7 @@
         <v>-0.138975748731845</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000321548081384955</v>
+        <v>0.0922956601978442</v>
       </c>
       <c r="F6" t="n">
         <v>0.000321548081384955</v>
@@ -1945,7 +1945,7 @@
         <v>-0.135718504620943</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000255899675557191</v>
+        <v>0.0878887309171692</v>
       </c>
       <c r="F7" t="n">
         <v>0.000255899675557191</v>
@@ -1995,7 +1995,7 @@
         <v>-0.0466871655896046</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0000880633816023471</v>
+        <v>0.0922061358010673</v>
       </c>
       <c r="F8" t="n">
         <v>0.0000880633816023471</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000085518498020601</v>
+        <v>0.07944423912787</v>
       </c>
       <c r="F9" t="n">
         <v>0.000085518498020601</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000807021419718511</v>
+        <v>0.048449918967526</v>
       </c>
       <c r="F10" t="n">
         <v>0.0000807021419718511</v>
@@ -2259,7 +2259,7 @@
         <v>-0.0199905370238939</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0937905564823044</v>
+        <v>0.125543145128854</v>
       </c>
       <c r="F2" t="n">
         <v>0.0937905564823044</v>
@@ -2309,7 +2309,7 @@
         <v>-0.0243671634729121</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0765563800395561</v>
+        <v>0.0975884902710536</v>
       </c>
       <c r="F3" t="n">
         <v>0.0765563800395561</v>
@@ -2359,7 +2359,7 @@
         <v>-0.023775727466288</v>
       </c>
       <c r="E4" t="n">
-        <v>0.074127165462022</v>
+        <v>0.0725168480890756</v>
       </c>
       <c r="F4" t="n">
         <v>0.074127165462022</v>
@@ -2409,7 +2409,7 @@
         <v>-0.0151407617695764</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0663479864734176</v>
+        <v>0.0929484241724945</v>
       </c>
       <c r="F5" t="n">
         <v>0.0663479864734176</v>
@@ -2459,7 +2459,7 @@
         <v>-0.0151407617695764</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0586667428456262</v>
+        <v>0.0716837435036956</v>
       </c>
       <c r="F6" t="n">
         <v>0.0586667428456262</v>
@@ -2509,7 +2509,7 @@
         <v>-0.014785900165602</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0466891308930552</v>
+        <v>0.0682609911498182</v>
       </c>
       <c r="F7" t="n">
         <v>0.0466891308930552</v>
@@ -2559,7 +2559,7 @@
         <v>-0.00508634965696712</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0160672448746351</v>
+        <v>0.0716142121315582</v>
       </c>
       <c r="F8" t="n">
         <v>0.0160672448746351</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0156029285272344</v>
+        <v>0.0617023644262475</v>
       </c>
       <c r="F9" t="n">
         <v>0.0156029285272344</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0147241799414927</v>
+        <v>0.0376298469136915</v>
       </c>
       <c r="F10" t="n">
         <v>0.0147241799414927</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.02025981643114</v>
+        <v>1.50929222162975</v>
       </c>
       <c r="B2" t="n">
-        <v>8.19975596296799</v>
+        <v>6.12585955208085</v>
       </c>
       <c r="C2" t="n">
-        <v>48.5254990593366</v>
+        <v>36.2523462008655</v>
       </c>
       <c r="D2" t="n">
-        <v>78.5141995441602</v>
+        <v>58.6562528718824</v>
       </c>
       <c r="E2" t="n">
-        <v>35.4880469823055</v>
+        <v>26.5123489739275</v>
       </c>
       <c r="F2" t="n">
-        <v>26.89846512427</v>
+        <v>20.0952589640461</v>
       </c>
       <c r="G2" t="n">
-        <v>23.1785591617696</v>
+        <v>17.3161980290451</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0883449640542</v>
+        <v>15.7546444088158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.19981529418434</v>
+        <v>2.51019638727439</v>
       </c>
       <c r="B3" t="n">
-        <v>11.6107902213199</v>
+        <v>9.10845189093561</v>
       </c>
       <c r="C3" t="n">
-        <v>64.7117114455731</v>
+        <v>50.7651502823469</v>
       </c>
       <c r="D3" t="n">
-        <v>101.795067814003</v>
+        <v>79.8563629386609</v>
       </c>
       <c r="E3" t="n">
-        <v>45.3382283586172</v>
+        <v>35.5670082701547</v>
       </c>
       <c r="F3" t="n">
-        <v>34.0750233869283</v>
+        <v>26.7312306299733</v>
       </c>
       <c r="G3" t="n">
-        <v>29.2086050636075</v>
+        <v>22.9136147455917</v>
       </c>
       <c r="H3" t="n">
-        <v>26.4815723484381</v>
+        <v>20.7743076168212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.86080845501938</v>
+        <v>3.94654200649833</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8288941467041</v>
+        <v>13.1137740286145</v>
       </c>
       <c r="C4" t="n">
-        <v>68.5992135867493</v>
+        <v>70.1225355225499</v>
       </c>
       <c r="D4" t="n">
-        <v>105.800417399331</v>
+        <v>108.149833496317</v>
       </c>
       <c r="E4" t="n">
-        <v>46.6354442438969</v>
+        <v>47.6710362206576</v>
       </c>
       <c r="F4" t="n">
-        <v>34.8443027178748</v>
+        <v>35.6180592653998</v>
       </c>
       <c r="G4" t="n">
-        <v>29.7612416911408</v>
+        <v>30.4221232076241</v>
       </c>
       <c r="H4" t="n">
-        <v>26.9200524864121</v>
+        <v>27.5178422324067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.34361582064334</v>
+        <v>1.67290830534538</v>
       </c>
       <c r="B5" t="n">
-        <v>7.82208548486784</v>
+        <v>5.58352254558723</v>
       </c>
       <c r="C5" t="n">
-        <v>48.3547679960659</v>
+        <v>34.5163623965732</v>
       </c>
       <c r="D5" t="n">
-        <v>79.5620709411727</v>
+        <v>56.7926057229934</v>
       </c>
       <c r="E5" t="n">
-        <v>36.1056841077738</v>
+        <v>25.7727816487819</v>
       </c>
       <c r="F5" t="n">
-        <v>27.3752668682151</v>
+        <v>19.5408782026024</v>
       </c>
       <c r="G5" t="n">
-        <v>23.5742867869542</v>
+        <v>16.827681316669</v>
       </c>
       <c r="H5" t="n">
-        <v>21.4313653446213</v>
+        <v>15.2980316842487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.31364615266422</v>
+        <v>2.71192347410997</v>
       </c>
       <c r="B6" t="n">
-        <v>10.3830024924836</v>
+        <v>8.49756035914376</v>
       </c>
       <c r="C6" t="n">
-        <v>59.8331218591433</v>
+        <v>48.9680672659125</v>
       </c>
       <c r="D6" t="n">
-        <v>95.4902732856314</v>
+        <v>78.1502615975671</v>
       </c>
       <c r="E6" t="n">
-        <v>42.7143025910725</v>
+        <v>34.9578423706559</v>
       </c>
       <c r="F6" t="n">
-        <v>32.1472236223853</v>
+        <v>26.3096318533935</v>
       </c>
       <c r="G6" t="n">
-        <v>27.5702517255092</v>
+        <v>22.5637890700594</v>
       </c>
       <c r="H6" t="n">
-        <v>25.0021480388375</v>
+        <v>20.4620255289421</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.78359437825361</v>
+        <v>3.27188135278285</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1007175747591</v>
+        <v>9.64460429660322</v>
       </c>
       <c r="C7" t="n">
-        <v>77.7628955262314</v>
+        <v>53.1882404092057</v>
       </c>
       <c r="D7" t="n">
-        <v>121.813199531084</v>
+        <v>83.3177532527486</v>
       </c>
       <c r="E7" t="n">
-        <v>54.0284858701217</v>
+        <v>36.9543864841818</v>
       </c>
       <c r="F7" t="n">
-        <v>40.4914326504337</v>
+        <v>27.6953171528694</v>
       </c>
       <c r="G7" t="n">
-        <v>34.6458590092876</v>
+        <v>23.6970635635324</v>
       </c>
       <c r="H7" t="n">
-        <v>31.3739871845631</v>
+        <v>21.4591697193808</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.12453607081344</v>
+        <v>0.476657360022985</v>
       </c>
       <c r="B8" t="n">
-        <v>15.620884863155</v>
+        <v>3.5046756053634</v>
       </c>
       <c r="C8" t="n">
-        <v>83.9360296837722</v>
+        <v>18.8317472550886</v>
       </c>
       <c r="D8" t="n">
-        <v>130.339956910996</v>
+        <v>29.2428547673081</v>
       </c>
       <c r="E8" t="n">
-        <v>58.3176824657919</v>
+        <v>13.084057714379</v>
       </c>
       <c r="F8" t="n">
-        <v>44.1662964492889</v>
+        <v>9.9090764128331</v>
       </c>
       <c r="G8" t="n">
-        <v>38.1206565209548</v>
+        <v>8.55268674853056</v>
       </c>
       <c r="H8" t="n">
-        <v>34.7531244723368</v>
+        <v>7.7971528895679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.25188592812337</v>
+        <v>0.822317656495583</v>
       </c>
       <c r="B9" t="n">
-        <v>17.988150259984</v>
+        <v>4.54873691557094</v>
       </c>
       <c r="C9" t="n">
-        <v>92.897739149903</v>
+        <v>23.4914301546767</v>
       </c>
       <c r="D9" t="n">
-        <v>140.995255080002</v>
+        <v>35.6540451593558</v>
       </c>
       <c r="E9" t="n">
-        <v>62.1071910042549</v>
+        <v>15.7052986749801</v>
       </c>
       <c r="F9" t="n">
-        <v>46.512401257601</v>
+        <v>11.761780593025</v>
       </c>
       <c r="G9" t="n">
-        <v>39.8168940108005</v>
+        <v>10.0686603698887</v>
       </c>
       <c r="H9" t="n">
-        <v>36.0770798523041</v>
+        <v>9.12295831190828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.28020612216666</v>
+        <v>1.6748015285316</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9344726414702</v>
+        <v>7.80015828618676</v>
       </c>
       <c r="C10" t="n">
-        <v>99.1420631980141</v>
+        <v>38.7932903805479</v>
       </c>
       <c r="D10" t="n">
-        <v>146.967844046171</v>
+        <v>57.5070365370446</v>
       </c>
       <c r="E10" t="n">
-        <v>63.724097239219</v>
+        <v>24.9345971699408</v>
       </c>
       <c r="F10" t="n">
-        <v>47.2227116272577</v>
+        <v>18.4777712468443</v>
       </c>
       <c r="G10" t="n">
-        <v>40.1400298172454</v>
+        <v>15.7063892192173</v>
       </c>
       <c r="H10" t="n">
-        <v>36.1951134682422</v>
+        <v>14.1627832005671</v>
       </c>
     </row>
     <row r="11">
